--- a/1_Clean_Data/Hobbs_2023_PM/CodeBook_Hobbs_2023_PM_Exp1_Clean.xlsx
+++ b/1_Clean_Data/Hobbs_2023_PM/CodeBook_Hobbs_2023_PM_Exp1_Clean.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t>Variable_name</t>
   </si>
@@ -53,61 +53,115 @@
     <t>Numeric</t>
   </si>
   <si>
-    <t>Stim</t>
-  </si>
-  <si>
-    <t>Type of stimulus presented</t>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Participant's age</t>
+  </si>
+  <si>
+    <t>Numerical</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Participant's gender</t>
+  </si>
+  <si>
+    <t>Male;Female;Other</t>
+  </si>
+  <si>
+    <t>Categorical</t>
+  </si>
+  <si>
+    <t>Ethnicity</t>
+  </si>
+  <si>
+    <t>Participant's ethnicity</t>
+  </si>
+  <si>
+    <t>Asian;White;Black;Mixed;Other</t>
+  </si>
+  <si>
+    <t>Employment_Status</t>
+  </si>
+  <si>
+    <t>Participant's employment status</t>
+  </si>
+  <si>
+    <t>Employed;Other;Student</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Participant's highest level of education</t>
+  </si>
+  <si>
+    <t>A-Level, International Baccalaureate or equivalent;Degree (e.g. BA, BSc or equivalent);Diploma (e.g. NVQ, BTEC First or equivalent);Diploma (e.g. NVQ, BTEC First or equivalent)</t>
+  </si>
+  <si>
+    <t>Depression</t>
+  </si>
+  <si>
+    <t>Indicator of depression diagnosis or symptoms</t>
+  </si>
+  <si>
+    <t>In the past, but not currently;No;Yes, currently</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>Type of treatment received</t>
+  </si>
+  <si>
+    <t>Antidepressants;None;0ther;Psychological Therapy</t>
+  </si>
+  <si>
+    <t>Shape</t>
+  </si>
+  <si>
+    <t>Shape of the object or stimulus</t>
+  </si>
+  <si>
+    <t>Friend;Self;Stranger</t>
+  </si>
+  <si>
+    <t>Matching</t>
+  </si>
+  <si>
+    <t>Type of matching task performed</t>
+  </si>
+  <si>
+    <t>Matching;Nomatching</t>
+  </si>
+  <si>
+    <t>Identity</t>
+  </si>
+  <si>
+    <t>Type of identity task performed</t>
+  </si>
+  <si>
+    <t>RT_ms</t>
+  </si>
+  <si>
+    <t>Reaction time in milliseconds</t>
+  </si>
+  <si>
+    <t>RT_sec</t>
+  </si>
+  <si>
+    <t>Reaction time in seconds</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>Accuracy of the response</t>
   </si>
   <si>
     <t>0;1</t>
-  </si>
-  <si>
-    <t>Categorical</t>
-  </si>
-  <si>
-    <t>Matching</t>
-  </si>
-  <si>
-    <t>Type of matching task performed</t>
-  </si>
-  <si>
-    <t>Matching;Nomatching</t>
-  </si>
-  <si>
-    <t>Identity</t>
-  </si>
-  <si>
-    <t>Type of identity task performed</t>
-  </si>
-  <si>
-    <t>Self;Stranger</t>
-  </si>
-  <si>
-    <t>Response</t>
-  </si>
-  <si>
-    <t>Participant's response</t>
-  </si>
-  <si>
-    <t>RT_ms</t>
-  </si>
-  <si>
-    <t>Reaction time in milliseconds</t>
-  </si>
-  <si>
-    <t>Numerical</t>
-  </si>
-  <si>
-    <t>RT_sec</t>
-  </si>
-  <si>
-    <t>Reaction time in seconds</t>
-  </si>
-  <si>
-    <t>ACC</t>
-  </si>
-  <si>
-    <t>Accuracy of the response</t>
   </si>
 </sst>
 </file>
@@ -724,9 +778,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1047,17 +1104,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="20.125" customWidth="1"/>
     <col min="2" max="2" width="42.25" customWidth="1"/>
-    <col min="3" max="3" width="23.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="44.6666666666667" customWidth="1"/>
     <col min="4" max="4" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1097,24 +1154,24 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1128,7 +1185,7 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1139,52 +1196,136 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" ht="56" spans="1:4">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
         <v>10</v>
       </c>
-      <c r="D9" t="s">
-        <v>22</v>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/1_Clean_Data/Hobbs_2023_PM/CodeBook_Hobbs_2023_PM_Exp1_Clean.xlsx
+++ b/1_Clean_Data/Hobbs_2023_PM/CodeBook_Hobbs_2023_PM_Exp1_Clean.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Variable_name</t>
   </si>
@@ -53,102 +53,51 @@
     <t>Numeric</t>
   </si>
   <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Participant's age</t>
+    <t>Stim</t>
+  </si>
+  <si>
+    <t>Type of stimulus presented</t>
+  </si>
+  <si>
+    <t>0;1</t>
+  </si>
+  <si>
+    <t>Categorical</t>
+  </si>
+  <si>
+    <t>Matching</t>
+  </si>
+  <si>
+    <t>Type of matching task performed</t>
+  </si>
+  <si>
+    <t>Matching;Nomatching</t>
+  </si>
+  <si>
+    <t>Identity</t>
+  </si>
+  <si>
+    <t>Type of identity task performed</t>
+  </si>
+  <si>
+    <t>Self;Stranger</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>Participant's response</t>
+  </si>
+  <si>
+    <t>RT_ms</t>
+  </si>
+  <si>
+    <t>Reaction time in milliseconds</t>
   </si>
   <si>
     <t>Numerical</t>
   </si>
   <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Participant's gender</t>
-  </si>
-  <si>
-    <t>Male;Female;Other</t>
-  </si>
-  <si>
-    <t>Categorical</t>
-  </si>
-  <si>
-    <t>Ethnicity</t>
-  </si>
-  <si>
-    <t>Participant's ethnicity</t>
-  </si>
-  <si>
-    <t>Asian;White;Black;Mixed;Other</t>
-  </si>
-  <si>
-    <t>Employment_Status</t>
-  </si>
-  <si>
-    <t>Participant's employment status</t>
-  </si>
-  <si>
-    <t>Employed;Other;Student</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Participant's highest level of education</t>
-  </si>
-  <si>
-    <t>A-Level, International Baccalaureate or equivalent;Degree (e.g. BA, BSc or equivalent);Diploma (e.g. NVQ, BTEC First or equivalent);Diploma (e.g. NVQ, BTEC First or equivalent)</t>
-  </si>
-  <si>
-    <t>Depression</t>
-  </si>
-  <si>
-    <t>Indicator of depression diagnosis or symptoms</t>
-  </si>
-  <si>
-    <t>In the past, but not currently;No;Yes, currently</t>
-  </si>
-  <si>
-    <t>Treatment</t>
-  </si>
-  <si>
-    <t>Type of treatment received</t>
-  </si>
-  <si>
-    <t>Antidepressants;None;0ther;Psychological Therapy</t>
-  </si>
-  <si>
-    <t>Shape</t>
-  </si>
-  <si>
-    <t>Shape of the object or stimulus</t>
-  </si>
-  <si>
-    <t>Friend;Self;Stranger</t>
-  </si>
-  <si>
-    <t>Matching</t>
-  </si>
-  <si>
-    <t>Type of matching task performed</t>
-  </si>
-  <si>
-    <t>Matching;Nomatching</t>
-  </si>
-  <si>
-    <t>Identity</t>
-  </si>
-  <si>
-    <t>Type of identity task performed</t>
-  </si>
-  <si>
-    <t>RT_ms</t>
-  </si>
-  <si>
-    <t>Reaction time in milliseconds</t>
-  </si>
-  <si>
     <t>RT_sec</t>
   </si>
   <si>
@@ -159,9 +108,6 @@
   </si>
   <si>
     <t>Accuracy of the response</t>
-  </si>
-  <si>
-    <t>0;1</t>
   </si>
 </sst>
 </file>
@@ -778,12 +724,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1104,17 +1047,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="20.125" customWidth="1"/>
     <col min="2" max="2" width="42.25" customWidth="1"/>
-    <col min="3" max="3" width="44.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="23.3333333333333" customWidth="1"/>
     <col min="4" max="4" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1154,24 +1097,24 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1185,7 +1128,7 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1196,136 +1139,52 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" ht="56" spans="1:4">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>26</v>
+      <c r="C8" t="s">
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
